--- a/biology/Histoire de la zoologie et de la botanique/Masamitsu_Ōshima/Masamitsu_Ōshima.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Masamitsu_Ōshima/Masamitsu_Ōshima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Masamitsu_%C5%8Cshima</t>
+          <t>Masamitsu_Ōshima</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Masamitsu Ōshima est un herpétologiste et un ichtyologiste japonais, né le 21 juin 1884 à Sapporo et mort le 26 juin 1965 dans cette même ville.
 Il est diplômé en 1908 à l’université impériale de Tokyo où il suit les cours de Motokichi Namiye (1854-1918) qui avait été lui-même initié à l’herpétologie lors des voyages de Leonhard Hess Stejneger (1851-1943). Ōshima travaille alors comme technicien à l’institut de recherche du gouvernement coloniale de Formose et étudie notamment les serpents venimeux.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Masamitsu_%C5%8Cshima</t>
+          <t>Masamitsu_Ōshima</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kraig Adler (1989). Contributions to the History of Herpetology, Society for the study of amphibians and reptiles.
 Notices d'autorité : VIAF ISNI LCCN Japon CiNii Israël WorldCat 
